--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Itga8</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Itga8</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H2">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N2">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O2">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P2">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q2">
-        <v>5.040451629028555</v>
+        <v>8.748756683964444</v>
       </c>
       <c r="R2">
-        <v>45.364064661257</v>
+        <v>78.73881015568</v>
       </c>
       <c r="S2">
-        <v>0.003885601238122654</v>
+        <v>0.01291329207304462</v>
       </c>
       <c r="T2">
-        <v>0.003885601238122653</v>
+        <v>0.01291329207304462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H3">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N3">
         <v>10.452205</v>
       </c>
       <c r="O3">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P3">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q3">
-        <v>44.42904959212278</v>
+        <v>27.33061145097778</v>
       </c>
       <c r="R3">
-        <v>399.861446329105</v>
+        <v>245.9755030588</v>
       </c>
       <c r="S3">
-        <v>0.03424962340865409</v>
+        <v>0.04034037989057969</v>
       </c>
       <c r="T3">
-        <v>0.03424962340865409</v>
+        <v>0.0403403798905797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H4">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N4">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O4">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P4">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q4">
-        <v>147.5933537107663</v>
+        <v>62.93395462429334</v>
       </c>
       <c r="R4">
-        <v>1328.340183396897</v>
+        <v>566.4055916186401</v>
       </c>
       <c r="S4">
-        <v>0.1137772882521951</v>
+        <v>0.09289143208940796</v>
       </c>
       <c r="T4">
-        <v>0.1137772882521951</v>
+        <v>0.09289143208940796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H5">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N5">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O5">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P5">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q5">
-        <v>7.004587721870222</v>
+        <v>1.886130818737778</v>
       </c>
       <c r="R5">
-        <v>63.041289496832</v>
+        <v>16.97517736864</v>
       </c>
       <c r="S5">
-        <v>0.005399721439224128</v>
+        <v>0.00278395651292646</v>
       </c>
       <c r="T5">
-        <v>0.005399721439224128</v>
+        <v>0.00278395651292646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N6">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O6">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P6">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q6">
-        <v>8.045224862587222</v>
+        <v>22.70036023348778</v>
       </c>
       <c r="R6">
-        <v>72.407023763285</v>
+        <v>204.30324210139</v>
       </c>
       <c r="S6">
-        <v>0.006201931491021748</v>
+        <v>0.03350606176939901</v>
       </c>
       <c r="T6">
-        <v>0.006201931491021747</v>
+        <v>0.03350606176939901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N7">
         <v>10.452205</v>
       </c>
       <c r="O7">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P7">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q7">
-        <v>70.9146165278361</v>
+        <v>70.91461652783612</v>
       </c>
       <c r="R7">
         <v>638.231548750525</v>
       </c>
       <c r="S7">
-        <v>0.05466691123363861</v>
+        <v>0.1046710050984002</v>
       </c>
       <c r="T7">
-        <v>0.05466691123363861</v>
+        <v>0.1046710050984002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H8">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N8">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O8">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P8">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q8">
-        <v>235.5784374534983</v>
+        <v>163.2944534287884</v>
       </c>
       <c r="R8">
-        <v>2120.205937081485</v>
+        <v>1469.650080859095</v>
       </c>
       <c r="S8">
-        <v>0.181603541828003</v>
+        <v>0.2410249875732739</v>
       </c>
       <c r="T8">
-        <v>0.181603541828003</v>
+        <v>0.2410249875732739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H9">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N9">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O9">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P9">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q9">
-        <v>11.18024483512889</v>
+        <v>4.893935284691113</v>
       </c>
       <c r="R9">
-        <v>100.62220351616</v>
+        <v>44.04541756222001</v>
       </c>
       <c r="S9">
-        <v>0.008618666812256219</v>
+        <v>0.007223519638353673</v>
       </c>
       <c r="T9">
-        <v>0.008618666812256219</v>
+        <v>0.007223519638353671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H10">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N10">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O10">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P10">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q10">
-        <v>18.953529044833</v>
+        <v>27.29533934056422</v>
       </c>
       <c r="R10">
-        <v>170.581761403497</v>
+        <v>245.658054065078</v>
       </c>
       <c r="S10">
-        <v>0.01461096372778614</v>
+        <v>0.04028831774275041</v>
       </c>
       <c r="T10">
-        <v>0.01461096372778614</v>
+        <v>0.04028831774275041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H11">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N11">
         <v>10.452205</v>
       </c>
       <c r="O11">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P11">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q11">
-        <v>167.065839304745</v>
+        <v>85.26906632423389</v>
       </c>
       <c r="R11">
-        <v>1503.592553742705</v>
+        <v>767.421596918105</v>
       </c>
       <c r="S11">
-        <v>0.1287883070461343</v>
+        <v>0.1258583817125529</v>
       </c>
       <c r="T11">
-        <v>0.1287883070461343</v>
+        <v>0.1258583817125529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H12">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N12">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O12">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P12">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q12">
-        <v>554.992909815993</v>
+        <v>196.3483166313577</v>
       </c>
       <c r="R12">
-        <v>4994.936188343938</v>
+        <v>1767.134849682219</v>
       </c>
       <c r="S12">
-        <v>0.4278349037437216</v>
+        <v>0.2898129702656697</v>
       </c>
       <c r="T12">
-        <v>0.4278349037437215</v>
+        <v>0.2898129702656697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H13">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N13">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O13">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P13">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q13">
-        <v>26.339238347008</v>
+        <v>5.88455966920489</v>
       </c>
       <c r="R13">
-        <v>237.053145123072</v>
+        <v>52.96103702284401</v>
       </c>
       <c r="S13">
-        <v>0.02030448552326781</v>
+        <v>0.008685695633641468</v>
       </c>
       <c r="T13">
-        <v>0.02030448552326781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004706</v>
-      </c>
-      <c r="H14">
-        <v>0.014118</v>
-      </c>
-      <c r="I14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.3952656666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.185797</v>
-      </c>
-      <c r="O14">
-        <v>0.02469993039301214</v>
-      </c>
-      <c r="P14">
-        <v>0.02469993039301213</v>
-      </c>
-      <c r="Q14">
-        <v>0.001860120227333333</v>
-      </c>
-      <c r="R14">
-        <v>0.016741082046</v>
-      </c>
-      <c r="S14">
-        <v>1.433936081592034E-06</v>
-      </c>
-      <c r="T14">
-        <v>1.433936081592034E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004706</v>
-      </c>
-      <c r="H15">
-        <v>0.014118</v>
-      </c>
-      <c r="I15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.484068333333334</v>
-      </c>
-      <c r="N15">
-        <v>10.452205</v>
-      </c>
-      <c r="O15">
-        <v>0.2177174811148058</v>
-      </c>
-      <c r="P15">
-        <v>0.2177174811148058</v>
-      </c>
-      <c r="Q15">
-        <v>0.01639602557666667</v>
-      </c>
-      <c r="R15">
-        <v>0.14756423019</v>
-      </c>
-      <c r="S15">
-        <v>1.263942637879559E-05</v>
-      </c>
-      <c r="T15">
-        <v>1.263942637879558E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004706</v>
-      </c>
-      <c r="H16">
-        <v>0.014118</v>
-      </c>
-      <c r="I16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.574079</v>
-      </c>
-      <c r="N16">
-        <v>34.722237</v>
-      </c>
-      <c r="O16">
-        <v>0.7232577220128491</v>
-      </c>
-      <c r="P16">
-        <v>0.723257722012849</v>
-      </c>
-      <c r="Q16">
-        <v>0.054467615774</v>
-      </c>
-      <c r="R16">
-        <v>0.490208541966</v>
-      </c>
-      <c r="S16">
-        <v>4.198818892937826E-05</v>
-      </c>
-      <c r="T16">
-        <v>4.198818892937824E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004706</v>
-      </c>
-      <c r="H17">
-        <v>0.014118</v>
-      </c>
-      <c r="I17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.5492906666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.647872</v>
-      </c>
-      <c r="O17">
-        <v>0.03432486647933305</v>
-      </c>
-      <c r="P17">
-        <v>0.03432486647933305</v>
-      </c>
-      <c r="Q17">
-        <v>0.002584961877333334</v>
-      </c>
-      <c r="R17">
-        <v>0.023264656896</v>
-      </c>
-      <c r="S17">
-        <v>1.992704584886982E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.992704584886982E-06</v>
+        <v>0.008685695633641468</v>
       </c>
     </row>
   </sheetData>
